--- a/Lesson51.xlsx
+++ b/Lesson51.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuji_.FOMTEC06811450.000\Documents\★変更\MOS-Excel 365 2019(1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\user2023\EXCEL課題\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A3487B-5EE2-4D31-AF2E-7ED207A2EEAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674B864A-147C-4AFB-ABF6-A7DA410F1243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605" xr2:uid="{62509C14-4A46-4808-9E37-108D88918330}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{62509C14-4A46-4808-9E37-108D88918330}"/>
   </bookViews>
   <sheets>
     <sheet name="ホテルリスト" sheetId="1" r:id="rId1"/>
@@ -444,15 +444,6 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -490,6 +481,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -497,12 +497,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -516,8 +510,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -566,6 +566,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,10 +603,7 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -606,20 +618,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,33 +973,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913CF21F-009F-4D02-8642-D01451A71864}">
   <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="8" max="9" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="2:9" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C2" s="12"/>
@@ -984,10 +1010,10 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="F3" s="4" t="s">
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
         <v>73</v>
       </c>
       <c r="G3" s="1">
@@ -996,65 +1022,67 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>120.48</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="2">
+    <row r="6" spans="2:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="13">
         <v>110.5</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="15">
         <f>H6*$I$3</f>
         <v>13313.04</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1092,7 @@
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1078,8 +1106,10 @@
         <v>16626.240000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1119,7 @@
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1103,8 +1133,10 @@
         <v>23252.639999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1114,7 +1146,7 @@
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1128,8 +1160,10 @@
         <v>9999.84</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1139,7 +1173,7 @@
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1153,8 +1187,10 @@
         <v>13855.2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1164,7 +1200,7 @@
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1178,8 +1214,10 @@
         <v>26565.84</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1189,7 +1227,7 @@
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1203,8 +1241,10 @@
         <v>34336.800000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="2">
+        <v>8</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1214,7 +1254,7 @@
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1228,8 +1268,10 @@
         <v>5542.08</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1239,7 +1281,7 @@
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1253,8 +1295,10 @@
         <v>8855.2800000000007</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1264,7 +1308,7 @@
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1278,8 +1322,10 @@
         <v>21084</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1289,7 +1335,7 @@
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1303,8 +1349,10 @@
         <v>35541.599999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1314,7 +1362,7 @@
       <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1328,8 +1376,10 @@
         <v>13313.04</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="2">
+        <v>13</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1339,7 +1389,7 @@
       <c r="E18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1353,8 +1403,10 @@
         <v>19939.440000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="2">
+        <v>14</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1364,7 +1416,7 @@
       <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1378,8 +1430,10 @@
         <v>22168.32</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="2">
+        <v>15</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1389,7 +1443,7 @@
       <c r="E20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1403,8 +1457,10 @@
         <v>9879.36</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="2">
+        <v>16</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1414,7 +1470,7 @@
       <c r="E21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1428,8 +1484,10 @@
         <v>15541.92</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="2"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" s="2">
+        <v>17</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1439,7 +1497,7 @@
       <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1453,8 +1511,10 @@
         <v>7710.72</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="2">
+        <v>18</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
@@ -1464,7 +1524,7 @@
       <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1478,8 +1538,10 @@
         <v>14397.36</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="2"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24" s="2">
+        <v>19</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
@@ -1489,7 +1551,7 @@
       <c r="E24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1503,8 +1565,10 @@
         <v>6626.4000000000005</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="2"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" s="2">
+        <v>20</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -1514,7 +1578,7 @@
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1528,8 +1592,10 @@
         <v>11144.4</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="2"/>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B26" s="2">
+        <v>21</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>45</v>
       </c>
@@ -1539,7 +1605,7 @@
       <c r="E26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -1553,8 +1619,10 @@
         <v>16626.240000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="2"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27" s="2">
+        <v>22</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1564,7 +1632,7 @@
       <c r="E27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -1578,8 +1646,10 @@
         <v>28794.720000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="2"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B28" s="2">
+        <v>23</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
@@ -1589,7 +1659,7 @@
       <c r="E28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -1603,8 +1673,10 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="2"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B29" s="2">
+        <v>24</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>49</v>
       </c>
@@ -1614,7 +1686,7 @@
       <c r="E29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -1628,8 +1700,10 @@
         <v>11144.4</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="2"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B30" s="2">
+        <v>25</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>51</v>
       </c>
@@ -1639,7 +1713,7 @@
       <c r="E30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -1653,8 +1727,10 @@
         <v>17710.560000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="2"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B31" s="2">
+        <v>26</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>52</v>
       </c>
@@ -1664,7 +1740,7 @@
       <c r="E31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -1678,8 +1754,10 @@
         <v>9939.6</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="2"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B32" s="2">
+        <v>27</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>53</v>
       </c>
@@ -1689,7 +1767,7 @@
       <c r="E32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -1703,8 +1781,10 @@
         <v>15541.92</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="2"/>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B33" s="2">
+        <v>28</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>54</v>
       </c>
@@ -1714,7 +1794,7 @@
       <c r="E33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -1728,8 +1808,10 @@
         <v>14337.12</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="2"/>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B34" s="2">
+        <v>29</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>55</v>
       </c>
@@ -1739,7 +1821,7 @@
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -1753,8 +1835,10 @@
         <v>21084</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B35" s="2">
+        <v>30</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>56</v>
       </c>
@@ -1764,7 +1848,7 @@
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -1796,29 +1880,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="4" max="15" width="7.125" customWidth="1"/>
-    <col min="16" max="16" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="4" max="15" width="7.09765625" customWidth="1"/>
+    <col min="16" max="16" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="O3" s="7" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="O3" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>78</v>
       </c>
@@ -1865,8 +1949,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1910,8 +1994,8 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="9"/>
+    <row r="6" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
         <v>71</v>
       </c>
@@ -1953,8 +2037,8 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1998,8 +2082,8 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="9"/>
+    <row r="8" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
         <v>72</v>
       </c>
@@ -2041,8 +2125,8 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2086,8 +2170,8 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="9"/>
+    <row r="10" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
         <v>72</v>
       </c>

--- a/Lesson51.xlsx
+++ b/Lesson51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\user2023\EXCEL課題\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674B864A-147C-4AFB-ABF6-A7DA410F1243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01DA2B3-2154-4E7B-914D-C8F440A4E08C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{62509C14-4A46-4808-9E37-108D88918330}"/>
   </bookViews>
@@ -419,9 +419,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="[$€-2]\ #,##0.00;[$€-2]\ \-#,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -590,11 +592,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -644,6 +643,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -974,7 +982,7 @@
   <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -989,875 +997,875 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="17">
         <v>43922</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>120.48</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="18">
         <v>110.5</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <f>H6*$I$3</f>
         <v>13313.04</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="19">
         <v>138</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <f t="shared" ref="I7:I35" si="0">H7*$I$3</f>
         <v>16626.240000000002</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="19">
         <v>193</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>23252.639999999999</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="19">
         <v>83</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>9999.84</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="19">
         <v>115</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>13855.2</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="19">
         <v>220.5</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>26565.84</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="19">
         <v>285</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>34336.800000000003</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="19">
         <v>46</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>5542.08</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="19">
         <v>73.5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>8855.2800000000007</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="19">
         <v>175</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>21084</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="19">
         <v>295</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>35541.599999999999</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="19">
         <v>110.5</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>13313.04</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="19">
         <v>165.5</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>19939.440000000002</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="19">
         <v>184</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>22168.32</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="19">
         <v>82</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>9879.36</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>16</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="19">
         <v>129</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>15541.92</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>17</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="19">
         <v>64</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>7710.72</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>18</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="19">
         <v>119.5</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>14397.36</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>19</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="19">
         <v>55</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>6626.4000000000005</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>20</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="19">
         <v>92.5</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>11144.4</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>21</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="19">
         <v>138</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>16626.240000000002</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>22</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="19">
         <v>239</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>28794.720000000001</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>23</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="19">
         <v>350</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>42168</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>24</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="19">
         <v>92.5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>11144.4</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>25</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="19">
         <v>147</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>17710.560000000001</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>26</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="19">
         <v>82.5</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>9939.6</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>27</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="19">
         <v>129</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>15541.92</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>28</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="19">
         <v>119</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <f t="shared" si="0"/>
         <v>14337.12</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>29</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="19">
         <v>175</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <f t="shared" si="0"/>
         <v>21084</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>30</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="19">
         <v>211</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <f t="shared" si="0"/>
         <v>25421.280000000002</v>
       </c>
@@ -1898,320 +1906,320 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>9.9</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>4.7</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>11</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>18.5</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>22.2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>24.5</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>29.3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>27.3</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>23.2</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>18.8</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>10.9</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>9</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="8"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>5.4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>-1.3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>3.6</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>8.5</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>10.5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>14.5</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>17.8</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>15.2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>11.1</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>5.3</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>13.7</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>9.9</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>13.6</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>22.9</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>22.7</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>27.4</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>31.2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>30.8</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>27.3</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>21.9</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>12.5</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="8"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>6.4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>3.3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>6.1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>12.4</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>14.4</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>17.5</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>20.5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>20.6</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>12.7</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>10.1</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>6.3</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>6.6</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>9.5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>15.2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>20.8</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>24.2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>28.2</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>24.4</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>20.9</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>16.3</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>12.1</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <v>10.4</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="8"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>4.5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>3.2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>7.8</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>9.9</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>13.1</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>16.3</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>14.5</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>10.9</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>8.5</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>6.2</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>5.8</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="P10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Lesson51.xlsx
+++ b/Lesson51.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\user2023\EXCEL課題\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2023\OneDrive\Documents\Office のカスタム テンプレート\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01DA2B3-2154-4E7B-914D-C8F440A4E08C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE9C42A-D98C-441B-A75A-1BDB84986C74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{62509C14-4A46-4808-9E37-108D88918330}"/>
   </bookViews>
@@ -422,8 +422,8 @@
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="178" formatCode="[$€-2]\ #,##0.00;[$€-2]\ \-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="[$€-2]\ #,##0.00_);[Red]\([$€-2]\ #,##0.00\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -592,7 +592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,12 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -644,7 +638,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -982,7 +985,7 @@
   <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -997,37 +1000,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <v>43922</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="18">
         <v>1</v>
       </c>
       <c r="I3" s="4">
@@ -1035,54 +1038,54 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="19">
         <v>110.5</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="12">
         <f>H6*$I$3</f>
         <v>13313.04</v>
       </c>
@@ -1106,7 +1109,7 @@
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="20">
         <v>138</v>
       </c>
       <c r="I7" s="2">
@@ -1133,7 +1136,7 @@
       <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="20">
         <v>193</v>
       </c>
       <c r="I8" s="2">
@@ -1160,7 +1163,7 @@
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="20">
         <v>83</v>
       </c>
       <c r="I9" s="2">
@@ -1187,7 +1190,7 @@
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="20">
         <v>115</v>
       </c>
       <c r="I10" s="2">
@@ -1214,7 +1217,7 @@
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="20">
         <v>220.5</v>
       </c>
       <c r="I11" s="2">
@@ -1241,7 +1244,7 @@
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="20">
         <v>285</v>
       </c>
       <c r="I12" s="2">
@@ -1268,7 +1271,7 @@
       <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="20">
         <v>46</v>
       </c>
       <c r="I13" s="2">
@@ -1295,7 +1298,7 @@
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="20">
         <v>73.5</v>
       </c>
       <c r="I14" s="2">
@@ -1322,7 +1325,7 @@
       <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="20">
         <v>175</v>
       </c>
       <c r="I15" s="2">
@@ -1349,7 +1352,7 @@
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="20">
         <v>295</v>
       </c>
       <c r="I16" s="2">
@@ -1376,7 +1379,7 @@
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="20">
         <v>110.5</v>
       </c>
       <c r="I17" s="2">
@@ -1403,7 +1406,7 @@
       <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="20">
         <v>165.5</v>
       </c>
       <c r="I18" s="2">
@@ -1430,7 +1433,7 @@
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="20">
         <v>184</v>
       </c>
       <c r="I19" s="2">
@@ -1457,7 +1460,7 @@
       <c r="G20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="20">
         <v>82</v>
       </c>
       <c r="I20" s="2">
@@ -1484,7 +1487,7 @@
       <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="20">
         <v>129</v>
       </c>
       <c r="I21" s="2">
@@ -1511,7 +1514,7 @@
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="20">
         <v>64</v>
       </c>
       <c r="I22" s="2">
@@ -1538,7 +1541,7 @@
       <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="20">
         <v>119.5</v>
       </c>
       <c r="I23" s="2">
@@ -1565,7 +1568,7 @@
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="20">
         <v>55</v>
       </c>
       <c r="I24" s="2">
@@ -1592,7 +1595,7 @@
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="20">
         <v>92.5</v>
       </c>
       <c r="I25" s="2">
@@ -1619,7 +1622,7 @@
       <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="20">
         <v>138</v>
       </c>
       <c r="I26" s="2">
@@ -1646,7 +1649,7 @@
       <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="20">
         <v>239</v>
       </c>
       <c r="I27" s="2">
@@ -1673,7 +1676,7 @@
       <c r="G28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="20">
         <v>350</v>
       </c>
       <c r="I28" s="2">
@@ -1700,7 +1703,7 @@
       <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="20">
         <v>92.5</v>
       </c>
       <c r="I29" s="2">
@@ -1727,7 +1730,7 @@
       <c r="G30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="20">
         <v>147</v>
       </c>
       <c r="I30" s="2">
@@ -1754,7 +1757,7 @@
       <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="20">
         <v>82.5</v>
       </c>
       <c r="I31" s="2">
@@ -1781,7 +1784,7 @@
       <c r="G32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="20">
         <v>129</v>
       </c>
       <c r="I32" s="2">
@@ -1808,7 +1811,7 @@
       <c r="G33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="20">
         <v>119</v>
       </c>
       <c r="I33" s="2">
@@ -1835,7 +1838,7 @@
       <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="20">
         <v>175</v>
       </c>
       <c r="I34" s="2">
@@ -1862,7 +1865,7 @@
       <c r="G35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="20">
         <v>211</v>
       </c>
       <c r="I35" s="2">
@@ -1958,7 +1961,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2003,7 +2006,7 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="7"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
@@ -2046,7 +2049,7 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2091,7 +2094,7 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="7"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
@@ -2134,7 +2137,7 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2179,7 +2182,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="7"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="1" t="s">
         <v>72</v>
       </c>

--- a/Lesson51.xlsx
+++ b/Lesson51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2023\OneDrive\Documents\Office のカスタム テンプレート\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE9C42A-D98C-441B-A75A-1BDB84986C74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652B9EB8-F4CD-4291-A54A-A57145C326C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{62509C14-4A46-4808-9E37-108D88918330}"/>
   </bookViews>
@@ -661,7 +661,27 @@
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -984,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913CF21F-009F-4D02-8642-D01451A71864}">
   <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1876,8 +1896,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I6:I35">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>30000</formula>
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="15000"/>
+        <cfvo type="num" val="25000"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lesson51.xlsx
+++ b/Lesson51.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2023\OneDrive\Documents\Office のカスタム テンプレート\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652B9EB8-F4CD-4291-A54A-A57145C326C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106992C4-C728-4983-B195-78EF256884F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{62509C14-4A46-4808-9E37-108D88918330}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="1" xr2:uid="{62509C14-4A46-4808-9E37-108D88918330}"/>
   </bookViews>
   <sheets>
     <sheet name="ホテルリスト" sheetId="1" r:id="rId1"/>
@@ -272,39 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
     <t>年間推移</t>
     <rPh sb="0" eb="2">
       <t>ネンカン</t>
@@ -414,6 +381,50 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -423,7 +434,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="178" formatCode="[$€-2]\ #,##0.00_);[Red]\([$€-2]\ #,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="[$€-2]\ #,##0.00_);[Red]\([$€-2]\ #,##0.00\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -641,58 +652,27 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1004,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913CF21F-009F-4D02-8642-D01451A71864}">
   <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1021,7 +1001,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1033,7 +1013,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1045,12 +1025,12 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="F3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G3" s="15">
         <v>43922</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="16">
         <v>1</v>
       </c>
       <c r="I3" s="4">
@@ -1102,7 +1082,7 @@
       <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <v>110.5</v>
       </c>
       <c r="I6" s="12">
@@ -1129,7 +1109,7 @@
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>138</v>
       </c>
       <c r="I7" s="2">
@@ -1156,7 +1136,7 @@
       <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <v>193</v>
       </c>
       <c r="I8" s="2">
@@ -1183,7 +1163,7 @@
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <v>83</v>
       </c>
       <c r="I9" s="2">
@@ -1210,7 +1190,7 @@
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <v>115</v>
       </c>
       <c r="I10" s="2">
@@ -1226,7 +1206,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -1237,7 +1217,7 @@
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="18">
         <v>220.5</v>
       </c>
       <c r="I11" s="2">
@@ -1253,7 +1233,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -1264,7 +1244,7 @@
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="18">
         <v>285</v>
       </c>
       <c r="I12" s="2">
@@ -1291,7 +1271,7 @@
       <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="18">
         <v>46</v>
       </c>
       <c r="I13" s="2">
@@ -1318,7 +1298,7 @@
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="18">
         <v>73.5</v>
       </c>
       <c r="I14" s="2">
@@ -1345,7 +1325,7 @@
       <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="18">
         <v>175</v>
       </c>
       <c r="I15" s="2">
@@ -1372,7 +1352,7 @@
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="18">
         <v>295</v>
       </c>
       <c r="I16" s="2">
@@ -1388,7 +1368,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>31</v>
@@ -1399,7 +1379,7 @@
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="18">
         <v>110.5</v>
       </c>
       <c r="I17" s="2">
@@ -1415,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>31</v>
@@ -1426,7 +1406,7 @@
       <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="18">
         <v>165.5</v>
       </c>
       <c r="I18" s="2">
@@ -1442,7 +1422,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
@@ -1453,7 +1433,7 @@
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="18">
         <v>184</v>
       </c>
       <c r="I19" s="2">
@@ -1480,7 +1460,7 @@
       <c r="G20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="18">
         <v>82</v>
       </c>
       <c r="I20" s="2">
@@ -1507,7 +1487,7 @@
       <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="18">
         <v>129</v>
       </c>
       <c r="I21" s="2">
@@ -1534,7 +1514,7 @@
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="18">
         <v>64</v>
       </c>
       <c r="I22" s="2">
@@ -1561,7 +1541,7 @@
       <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="18">
         <v>119.5</v>
       </c>
       <c r="I23" s="2">
@@ -1588,7 +1568,7 @@
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="18">
         <v>55</v>
       </c>
       <c r="I24" s="2">
@@ -1615,7 +1595,7 @@
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="18">
         <v>92.5</v>
       </c>
       <c r="I25" s="2">
@@ -1642,7 +1622,7 @@
       <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="18">
         <v>138</v>
       </c>
       <c r="I26" s="2">
@@ -1669,7 +1649,7 @@
       <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="18">
         <v>239</v>
       </c>
       <c r="I27" s="2">
@@ -1696,7 +1676,7 @@
       <c r="G28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="18">
         <v>350</v>
       </c>
       <c r="I28" s="2">
@@ -1723,7 +1703,7 @@
       <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="18">
         <v>92.5</v>
       </c>
       <c r="I29" s="2">
@@ -1750,7 +1730,7 @@
       <c r="G30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="18">
         <v>147</v>
       </c>
       <c r="I30" s="2">
@@ -1766,7 +1746,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>31</v>
@@ -1777,7 +1757,7 @@
       <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="18">
         <v>82.5</v>
       </c>
       <c r="I31" s="2">
@@ -1793,7 +1773,7 @@
         <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>31</v>
@@ -1804,7 +1784,7 @@
       <c r="G32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="18">
         <v>129</v>
       </c>
       <c r="I32" s="2">
@@ -1820,7 +1800,7 @@
         <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
@@ -1831,7 +1811,7 @@
       <c r="G33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="18">
         <v>119</v>
       </c>
       <c r="I33" s="2">
@@ -1847,7 +1827,7 @@
         <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
@@ -1858,7 +1838,7 @@
       <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="18">
         <v>175</v>
       </c>
       <c r="I34" s="2">
@@ -1874,7 +1854,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>10</v>
@@ -1885,7 +1865,7 @@
       <c r="G35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="18">
         <v>211</v>
       </c>
       <c r="I35" s="2">
@@ -1913,7 +1893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE80734-877D-45FD-A54B-5E4E49DF37A5}">
   <dimension ref="B1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1922,74 +1904,102 @@
     <col min="16" max="16" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
-        <v>83</v>
-      </c>
+    <row r="1" spans="2:16" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
+      <c r="B2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
       <c r="O3" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="L4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="2:16" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D5" s="1">
         <v>9.9</v>
@@ -2030,9 +2040,9 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="17"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1">
         <v>5.4</v>
@@ -2073,11 +2083,11 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1">
         <v>13.7</v>
@@ -2118,9 +2128,9 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="17"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1">
         <v>6.4</v>
@@ -2161,11 +2171,11 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1">
         <v>9.1999999999999993</v>
@@ -2206,9 +2216,9 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="17"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1">
         <v>4.5</v>

--- a/Lesson51.xlsx
+++ b/Lesson51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2023\OneDrive\Documents\Office のカスタム テンプレート\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106992C4-C728-4983-B195-78EF256884F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B82B573-3D52-4D19-BB0D-C2E30660B4AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="1" xr2:uid="{62509C14-4A46-4808-9E37-108D88918330}"/>
   </bookViews>
@@ -430,11 +430,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="177" formatCode="[$€-2]\ #,##0.00_);[Red]\([$€-2]\ #,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -603,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,6 +667,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1893,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE80734-877D-45FD-A54B-5E4E49DF37A5}">
   <dimension ref="B1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2001,40 +2005,40 @@
       <c r="C5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="21">
         <v>9.9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="21">
         <v>4.7</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="21">
         <v>11</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="21">
         <v>18.5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="21">
         <v>22.2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="21">
         <v>24.5</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="21">
         <v>29.3</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="21">
         <v>27.3</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="21">
         <v>23.2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="21">
         <v>18.8</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="21">
         <v>10.9</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="21">
         <v>9</v>
       </c>
       <c r="P5" s="1"/>
@@ -2044,40 +2048,40 @@
       <c r="C6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="21">
         <v>5.4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="21">
         <v>-1.3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="21">
         <v>3.6</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="21">
         <v>8.5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="21">
         <v>10.5</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="21">
         <v>14.5</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="21">
         <v>17.8</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="21">
         <v>15.2</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="21">
         <v>11.1</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="21">
         <v>5.3</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="21">
         <v>4.4000000000000004</v>
       </c>
       <c r="P6" s="1"/>
@@ -2089,40 +2093,40 @@
       <c r="C7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="21">
         <v>13.7</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="21">
         <v>9.9</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="21">
         <v>13.6</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="21">
         <v>22.9</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="21">
         <v>22.7</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="21">
         <v>27.4</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="21">
         <v>31.2</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="21">
         <v>30.8</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="21">
         <v>27.3</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="21">
         <v>21.9</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="21">
         <v>16.100000000000001</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="21">
         <v>12.5</v>
       </c>
       <c r="P7" s="1"/>
@@ -2132,40 +2136,40 @@
       <c r="C8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="21">
         <v>6.4</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="21">
         <v>3.3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="21">
         <v>6.1</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="21">
         <v>12.4</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="21">
         <v>14.4</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="21">
         <v>17.5</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="21">
         <v>20.5</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="21">
         <v>20.6</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="21">
         <v>17.600000000000001</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="21">
         <v>12.7</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="21">
         <v>10.1</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="21">
         <v>6.3</v>
       </c>
       <c r="P8" s="1"/>
@@ -2177,40 +2181,40 @@
       <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="21">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="21">
         <v>6.6</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="21">
         <v>9.5</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="21">
         <v>15.2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="21">
         <v>20.8</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="21">
         <v>24.2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="21">
         <v>28.2</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="21">
         <v>24.4</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="21">
         <v>20.9</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="21">
         <v>16.3</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="21">
         <v>12.1</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="21">
         <v>10.4</v>
       </c>
       <c r="P9" s="1"/>
@@ -2220,40 +2224,40 @@
       <c r="C10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="21">
         <v>4.5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="21">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="21">
         <v>3.2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="21">
         <v>7.8</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="21">
         <v>9.9</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="21">
         <v>13.1</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="21">
         <v>16.3</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="21">
         <v>14.5</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="21">
         <v>10.9</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="21">
         <v>8.5</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="21">
         <v>6.2</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="21">
         <v>5.8</v>
       </c>
       <c r="P10" s="1"/>
@@ -2266,5 +2270,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lesson51.xlsx
+++ b/Lesson51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2023\OneDrive\Documents\Office のカスタム テンプレート\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B82B573-3D52-4D19-BB0D-C2E30660B4AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B6B193-BD28-4E56-9C3F-F84026908911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="1" xr2:uid="{62509C14-4A46-4808-9E37-108D88918330}"/>
   </bookViews>
@@ -1898,7 +1898,7 @@
   <dimension ref="B1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2271,5 +2271,47 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup manualMin="0" displayEmptyCellsAs="gap" minAxisType="custom" maxAxisType="group" xr2:uid="{242A24EB-2E72-4BDD-A072-BC7655387056}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>年間気温!D5:O5</xm:f>
+              <xm:sqref>P5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>年間気温!D6:O6</xm:f>
+              <xm:sqref>P6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>年間気温!D7:O7</xm:f>
+              <xm:sqref>P7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>年間気温!D8:O8</xm:f>
+              <xm:sqref>P8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>年間気温!D9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>年間気温!D10:O10</xm:f>
+              <xm:sqref>P10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Lesson51.xlsx
+++ b/Lesson51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2023\OneDrive\Documents\Office のカスタム テンプレート\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B6B193-BD28-4E56-9C3F-F84026908911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D843822-4933-4A3A-A3CC-E315CF84CC95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="1" xr2:uid="{62509C14-4A46-4808-9E37-108D88918330}"/>
   </bookViews>
@@ -676,7 +676,38 @@
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1898,7 +1929,7 @@
   <dimension ref="B1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2269,6 +2300,14 @@
     <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D5:O10">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
